--- a/data/n_excel/combined.xlsx
+++ b/data/n_excel/combined.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chee Keet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/155b81f272b81788/Work/GA DSI/Lab/working-directory/project-fpl/data/n_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3C9929-A6F1-4464-AD0A-77403BAD9B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0B3C9929-A6F1-4464-AD0A-77403BAD9B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FA5C2E15-A8C0-442D-9934-10ACA7415695}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{958CE2AA-FA29-4D3C-A731-9E7E6F567448}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{958CE2AA-FA29-4D3C-A731-9E7E6F567448}"/>
   </bookViews>
   <sheets>
     <sheet name="league" sheetId="2" r:id="rId1"/>
@@ -646,9 +646,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7EB44B-B98A-49E3-8427-4C1EC0471CC8}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -701,386 +701,386 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="J2" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>38</v>
       </c>
       <c r="C3" s="2">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
         <v>67</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="I3" s="2">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="J3" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
-        <v>65</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>38</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
         <v>54</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
+      <c r="H5" s="2">
+        <v>15</v>
       </c>
       <c r="I5" s="2">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>38</v>
       </c>
       <c r="C6" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="H6" s="2">
+        <v>26</v>
       </c>
       <c r="I6" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>38</v>
       </c>
       <c r="C7" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <v>59</v>
+      </c>
+      <c r="J7" s="2">
         <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2">
-        <v>54</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
-        <v>66</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>38</v>
       </c>
       <c r="C8" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I8" s="2">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>38</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
-        <v>15</v>
-      </c>
       <c r="F9" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
         <v>56</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2">
-        <v>49</v>
-      </c>
       <c r="J9" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>38</v>
       </c>
       <c r="C10" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
         <v>12</v>
       </c>
       <c r="F10" s="2">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>38</v>
       </c>
       <c r="C11" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="2">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>38</v>
       </c>
       <c r="C12" s="2">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2">
-        <v>102</v>
-      </c>
-      <c r="G12" s="2">
-        <v>35</v>
-      </c>
-      <c r="H12" s="2">
-        <v>67</v>
-      </c>
       <c r="I12" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>38</v>
       </c>
       <c r="C13" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2">
+        <v>49</v>
+      </c>
+      <c r="J13" s="2">
         <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>66</v>
-      </c>
-      <c r="G13" s="2">
-        <v>36</v>
-      </c>
-      <c r="H13" s="2">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2">
-        <v>66</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,231 +1117,231 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I15" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J15" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>38</v>
       </c>
       <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
-        <v>12</v>
-      </c>
       <c r="E16" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
         <v>39</v>
       </c>
       <c r="G16" s="2">
-        <v>39</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I16" s="2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>38</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2">
+        <v>62</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2">
+        <v>39</v>
+      </c>
+      <c r="J17" s="2">
         <v>16</v>
-      </c>
-      <c r="F17" s="2">
-        <v>51</v>
-      </c>
-      <c r="G17" s="2">
-        <v>60</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2">
-        <v>52</v>
-      </c>
-      <c r="J17" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>38</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2">
-        <v>47</v>
-      </c>
-      <c r="H18" s="2">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I18" s="2">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J18" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>38</v>
       </c>
       <c r="C19" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G19" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2">
         <v>34</v>
       </c>
       <c r="J19" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>38</v>
       </c>
       <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" s="2">
-        <v>9</v>
-      </c>
       <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>64</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="2">
+        <v>34</v>
+      </c>
+      <c r="J20" s="2">
         <v>19</v>
-      </c>
-      <c r="F20" s="2">
-        <v>49</v>
-      </c>
-      <c r="G20" s="2">
-        <v>62</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="2">
-        <v>39</v>
-      </c>
-      <c r="J20" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2">
-        <v>14</v>
-      </c>
       <c r="E21" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2">
-        <v>40</v>
-      </c>
-      <c r="H21" s="2">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="I21" s="2">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J21" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
-    <sortCondition ref="A2:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="J2:J21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797C146-1072-41B9-83F7-72F783F9C46F}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -1914,11 +1914,11 @@
         <v>2100</v>
       </c>
       <c r="L2" s="4">
-        <f>RANK(F2,F:F)</f>
+        <f t="shared" ref="L2:L21" si="0">RANK(F2,F:F)</f>
         <v>1</v>
       </c>
       <c r="M2" s="4">
-        <f>RANK(I2,I:I)</f>
+        <f t="shared" ref="M2:M21" si="1">RANK(I2,I:I)</f>
         <v>1</v>
       </c>
       <c r="N2" s="2">
@@ -1928,15 +1928,15 @@
         <v>2</v>
       </c>
       <c r="P2" s="3">
-        <f>N2-O2</f>
+        <f t="shared" ref="P2:P21" si="2">N2-O2</f>
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <f>N2-L2</f>
+        <f t="shared" ref="Q2:Q21" si="3">N2-L2</f>
         <v>1</v>
       </c>
       <c r="R2" s="3">
-        <f>N2-M2</f>
+        <f t="shared" ref="R2:R21" si="4">N2-M2</f>
         <v>1</v>
       </c>
     </row>
@@ -1975,11 +1975,11 @@
         <v>2101</v>
       </c>
       <c r="L3" s="4">
-        <f>RANK(F3,F:F)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M3" s="4">
-        <f>RANK(I3,I:I)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N3" s="2">
@@ -1989,15 +1989,15 @@
         <v>1</v>
       </c>
       <c r="P3" s="3">
-        <f>N3-O3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3" s="3">
-        <f>N3-L3</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="R3" s="3">
-        <f>N3-M3</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -2036,11 +2036,11 @@
         <v>1688</v>
       </c>
       <c r="L4" s="4">
-        <f>RANK(F4,F:F)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M4" s="4">
-        <f>RANK(I4,I:I)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N4" s="2">
@@ -2050,15 +2050,15 @@
         <v>5</v>
       </c>
       <c r="P4" s="3">
-        <f>N4-O4</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="Q4" s="3">
-        <f>N4-L4</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R4" s="3">
-        <f>N4-M4</f>
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
     </row>
@@ -2097,11 +2097,11 @@
         <v>1795</v>
       </c>
       <c r="L5" s="4">
-        <f>RANK(F5,F:F)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M5" s="4">
-        <f>RANK(I5,I:I)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N5" s="2">
@@ -2111,15 +2111,15 @@
         <v>3</v>
       </c>
       <c r="P5" s="3">
-        <f>N5-O5</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q5" s="3">
-        <f>N5-L5</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R5" s="3">
-        <f>N5-M5</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2158,11 +2158,11 @@
         <v>1752</v>
       </c>
       <c r="L6" s="4">
-        <f>RANK(F6,F:F)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M6" s="4">
-        <f>RANK(I6,I:I)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N6" s="2">
@@ -2172,15 +2172,15 @@
         <v>4</v>
       </c>
       <c r="P6" s="3">
-        <f>N6-O6</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="Q6" s="3">
-        <f>N6-L6</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="R6" s="3">
-        <f>N6-M6</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -2219,11 +2219,11 @@
         <v>1569</v>
       </c>
       <c r="L7" s="4">
-        <f>RANK(F7,F:F)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M7" s="4">
-        <f>RANK(I7,I:I)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="N7" s="2">
@@ -2233,15 +2233,15 @@
         <v>8</v>
       </c>
       <c r="P7" s="3">
-        <f>N7-O7</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="Q7" s="3">
-        <f>N7-L7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f>N7-M7</f>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
     </row>
@@ -2280,11 +2280,11 @@
         <v>1537</v>
       </c>
       <c r="L8" s="4">
-        <f>RANK(F8,F:F)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M8" s="4">
-        <f>RANK(I8,I:I)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N8" s="2">
@@ -2294,15 +2294,15 @@
         <v>10</v>
       </c>
       <c r="P8" s="3">
-        <f>N8-O8</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="Q8" s="3">
-        <f>N8-L8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R8" s="3">
-        <f>N8-M8</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -2341,11 +2341,11 @@
         <v>1676</v>
       </c>
       <c r="L9" s="4">
-        <f>RANK(F9,F:F)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M9" s="4">
-        <f>RANK(I9,I:I)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N9" s="2">
@@ -2355,15 +2355,15 @@
         <v>6</v>
       </c>
       <c r="P9" s="3">
-        <f>N9-O9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <f>N9-L9</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="R9" s="3">
-        <f>N9-M9</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -2402,11 +2402,11 @@
         <v>1467</v>
       </c>
       <c r="L10" s="4">
-        <f>RANK(F10,F:F)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M10" s="4">
-        <f>RANK(I10,I:I)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N10" s="2">
@@ -2416,15 +2416,15 @@
         <v>12</v>
       </c>
       <c r="P10" s="3">
-        <f>N10-O10</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="Q10" s="3">
-        <f>N10-L10</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="R10" s="3">
-        <f>N10-M10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2463,11 +2463,11 @@
         <v>1433</v>
       </c>
       <c r="L11" s="4">
-        <f>RANK(F11,F:F)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M11" s="4">
-        <f>RANK(I11,I:I)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="N11" s="2">
@@ -2477,15 +2477,15 @@
         <v>13</v>
       </c>
       <c r="P11" s="3">
-        <f>N11-O11</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q11" s="3">
-        <f>N11-L11</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="R11" s="3">
-        <f>N11-M11</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -2524,11 +2524,11 @@
         <v>1432</v>
       </c>
       <c r="L12" s="4">
-        <f>RANK(F12,F:F)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M12" s="4">
-        <f>RANK(I12,I:I)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N12" s="2">
@@ -2538,15 +2538,15 @@
         <v>14</v>
       </c>
       <c r="P12" s="3">
-        <f>N12-O12</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="Q12" s="3">
-        <f>N12-L12</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R12" s="3">
-        <f>N12-M12</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2585,11 +2585,11 @@
         <v>1545</v>
       </c>
       <c r="L13" s="4">
-        <f>RANK(F13,F:F)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M13" s="4">
-        <f>RANK(I13,I:I)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N13" s="2">
@@ -2599,15 +2599,15 @@
         <v>9</v>
       </c>
       <c r="P13" s="3">
-        <f>N13-O13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <f>N13-L13</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="R13" s="3">
-        <f>N13-M13</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -2646,11 +2646,11 @@
         <v>1356</v>
       </c>
       <c r="L14" s="4">
-        <f>RANK(F14,F:F)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M14" s="4">
-        <f>RANK(I14,I:I)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="N14" s="2">
@@ -2660,15 +2660,15 @@
         <v>16</v>
       </c>
       <c r="P14" s="3">
-        <f>N14-O14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q14" s="3">
-        <f>N14-L14</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="R14" s="3">
-        <f>N14-M14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2707,11 +2707,11 @@
         <v>1265</v>
       </c>
       <c r="L15" s="4">
-        <f>RANK(F15,F:F)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="M15" s="4">
-        <f>RANK(I15,I:I)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="N15" s="2">
@@ -2721,15 +2721,15 @@
         <v>19</v>
       </c>
       <c r="P15" s="3">
-        <f>N15-O15</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="Q15" s="3">
-        <f>N15-L15</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="R15" s="3">
-        <f>N15-M15</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
     </row>
@@ -2768,11 +2768,11 @@
         <v>1594</v>
       </c>
       <c r="L16" s="4">
-        <f>RANK(F16,F:F)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M16" s="4">
-        <f>RANK(I16,I:I)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N16" s="2">
@@ -2782,15 +2782,15 @@
         <v>7</v>
       </c>
       <c r="P16" s="3">
-        <f>N16-O16</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q16" s="3">
-        <f>N16-L16</f>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="R16" s="3">
-        <f>N16-M16</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -2829,11 +2829,11 @@
         <v>1388</v>
       </c>
       <c r="L17" s="4">
-        <f>RANK(F17,F:F)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M17" s="4">
-        <f>RANK(I17,I:I)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N17" s="2">
@@ -2843,15 +2843,15 @@
         <v>15</v>
       </c>
       <c r="P17" s="3">
-        <f>N17-O17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <f>N17-L17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <f>N17-M17</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2890,11 +2890,11 @@
         <v>1495</v>
       </c>
       <c r="L18" s="4">
-        <f>RANK(F18,F:F)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="M18" s="4">
-        <f>RANK(I18,I:I)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N18" s="2">
@@ -2904,15 +2904,15 @@
         <v>11</v>
       </c>
       <c r="P18" s="3">
-        <f>N18-O18</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q18" s="3">
-        <f>N18-L18</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="R18" s="3">
-        <f>N18-M18</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -2951,11 +2951,11 @@
         <v>1334</v>
       </c>
       <c r="L19" s="4">
-        <f>RANK(F19,F:F)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="M19" s="4">
-        <f>RANK(I19,I:I)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="N19" s="2">
@@ -2965,15 +2965,15 @@
         <v>18</v>
       </c>
       <c r="P19" s="3">
-        <f>N19-O19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q19" s="3">
-        <f>N19-L19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R19" s="3">
-        <f>N19-M19</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -3012,11 +3012,11 @@
         <v>1345</v>
       </c>
       <c r="L20" s="4">
-        <f>RANK(F20,F:F)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="M20" s="4">
-        <f>RANK(I20,I:I)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="N20" s="2">
@@ -3026,15 +3026,15 @@
         <v>17</v>
       </c>
       <c r="P20" s="3">
-        <f>N20-O20</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="Q20" s="3">
-        <f>N20-L20</f>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="R20" s="3">
-        <f>N20-M20</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3073,11 +3073,11 @@
         <v>1140</v>
       </c>
       <c r="L21" s="4">
-        <f>RANK(F21,F:F)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M21" s="4">
-        <f>RANK(I21,I:I)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="N21" s="2">
@@ -3087,15 +3087,15 @@
         <v>20</v>
       </c>
       <c r="P21" s="3">
-        <f>N21-O21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <f>N21-L21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <f>N21-M21</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
